--- a/data/teacher/Renan Campos.xlsx
+++ b/data/teacher/Renan Campos.xlsx
@@ -985,7 +985,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ELM-2NA-Máquinas Elétricas</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>ELM-2NA-Máquinas Elétricas</t>
+          <t>-</t>
         </is>
       </c>
     </row>
